--- a/CLMebAddNew/Excelfiles/CLTestCase.xlsx
+++ b/CLMebAddNew/Excelfiles/CLTestCase.xlsx
@@ -13,10 +13,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>Sl No.</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>PASS / FAIL</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_001</t>
+  </si>
+  <si>
+    <t>Login with valid Username and Password</t>
+  </si>
+  <si>
+    <t>Home Page should get display</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_002</t>
+  </si>
+  <si>
+    <t>1. Mouse Over on Members menu 2. Click on Member Search</t>
+  </si>
+  <si>
+    <t>Member search screen should get display with Member details</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_003</t>
+  </si>
+  <si>
+    <t>1. Enter FirstName and Last Name 2. Click on search button</t>
+  </si>
+  <si>
+    <t>Search result should get display</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_004</t>
+  </si>
+  <si>
+    <t>1. Enter No. of records needed for the fulfillment type</t>
+  </si>
+  <si>
+    <t>Member Enquiry screen should get display with member details</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_005</t>
+  </si>
+  <si>
+    <t>1. Click on Submit button</t>
+  </si>
+  <si>
+    <t>A success message should get display with Record updated successfully</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_006</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_007</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_008</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_009</t>
+  </si>
+  <si>
+    <t>CL_TC_Flmnt_010</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +131,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,14 +464,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CLMebAddNew/Excelfiles/CLTestCase.xlsx
+++ b/CLMebAddNew/Excelfiles/CLTestCase.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DB9A8-F397-4CB3-91DB-C2C506DB073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateMember" sheetId="1" r:id="rId1"/>
+    <sheet name="AddDependent" sheetId="2" r:id="rId2"/>
+    <sheet name="Update Member" sheetId="3" r:id="rId3"/>
+    <sheet name="Fulfillment" sheetId="4" r:id="rId4"/>
+    <sheet name="Manual Letter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>Sl No.</t>
   </si>
@@ -92,13 +97,130 @@
   </si>
   <si>
     <t>CL_TC_Flmnt_010</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_001</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_002</t>
+  </si>
+  <si>
+    <t>1. Mouse Over on Members menu 
+2. Click on Member Search</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_003</t>
+  </si>
+  <si>
+    <t>1. Enter FirstName and Last Name 
+2. Click on search button</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_004</t>
+  </si>
+  <si>
+    <t>Click on Edit link</t>
+  </si>
+  <si>
+    <t>Edit screen should get display with member details</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_005</t>
+  </si>
+  <si>
+    <t>Enter all the required data for to add a dependent</t>
+  </si>
+  <si>
+    <t>Dependent should get create with success message like Member dependent details Added successfully.</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_006</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_007</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_008</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_009</t>
+  </si>
+  <si>
+    <t>DC_TC_AD_010</t>
+  </si>
+  <si>
+    <t>DC_TC_UMEB_001</t>
+  </si>
+  <si>
+    <t>DC_TC_UMEB_002</t>
+  </si>
+  <si>
+    <t>Member search screen should get display with search criteria</t>
+  </si>
+  <si>
+    <t>DC_TC_UMEB_003</t>
+  </si>
+  <si>
+    <t>Member should get Re-activate with success message like Member re-activated sucessfully.</t>
+  </si>
+  <si>
+    <t>DC_TC_UMEB_004</t>
+  </si>
+  <si>
+    <t>Member details screen should get display</t>
+  </si>
+  <si>
+    <t>DC_TC_UMEB_005</t>
+  </si>
+  <si>
+    <t>Member details details should get update with success message Record updated successfully.</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_001</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_002</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_003</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_004</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_005</t>
+  </si>
+  <si>
+    <t>Click on Mnaual Letter tab</t>
+  </si>
+  <si>
+    <t>Manual Letter screen should get display</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_006</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_007</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_008</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_009</t>
+  </si>
+  <si>
+    <t>CL_TC_ML_010</t>
+  </si>
+  <si>
+    <t>Respective serach result should get display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +236,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +324,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -253,6 +438,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,6 +490,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,20 +682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,4 +862,714 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8161A65-D6C0-4DB7-A296-180AEAB96DD3}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E638E-D24D-4D65-BFF1-ECD3253B4E8C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C11:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76012BF4-F76C-42B2-9DD9-2937155C1E82}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="59.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39B3C6-1E1A-4323-ACDE-13E950C537B3}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="59.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CLMebAddNew/Excelfiles/CLTestCase.xlsx
+++ b/CLMebAddNew/Excelfiles/CLTestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="82">
   <si>
     <t>Sl No.</t>
   </si>
@@ -213,6 +213,60 @@
   </si>
   <si>
     <t>Respective serach result should get display</t>
+  </si>
+  <si>
+    <t>1. Mouse Over on Members menu 2. Click on Add member</t>
+  </si>
+  <si>
+    <t>Add member screen should get display</t>
+  </si>
+  <si>
+    <t>1. Enter all the required details and click on Save button</t>
+  </si>
+  <si>
+    <t>Member should get create and success message should get display like Member details updated successfully.</t>
+  </si>
+  <si>
+    <t>1. Click on Group Agent tab</t>
+  </si>
+  <si>
+    <t>Group Agent screen should get display successfully</t>
+  </si>
+  <si>
+    <t>1. Click on Save button to update group details</t>
+  </si>
+  <si>
+    <t>Group details should get update with success message like Record updated successfully</t>
+  </si>
+  <si>
+    <t>Payment details should get update with success message like Record updated successfully</t>
+  </si>
+  <si>
+    <t>Approval screen should get display successfully</t>
+  </si>
+  <si>
+    <t>1. Click on Save button</t>
+  </si>
+  <si>
+    <t>Member status should get update to Active from Prospect</t>
+  </si>
+  <si>
+    <t>Member should get cancel with success message like Record updated successfully.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Member should get create with success message like Member details updated successfully.</t>
+  </si>
+  <si>
+    <t>Edit the required data to update the member details in respective fields and click on save button</t>
+  </si>
+  <si>
+    <t>1. Slect Fulfillment requirement type</t>
+  </si>
+  <si>
+    <t>1. Slect Fulfillment type from a drop list</t>
   </si>
 </sst>
 </file>
@@ -740,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -757,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -774,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -791,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -808,7 +862,9 @@
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
@@ -820,8 +876,12 @@
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>8</v>
@@ -1134,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>48</v>
